--- a/IT002-OOP/Điểm thực hành/it002m22/it002m222.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m22/it002m222.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m22 (done)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6A90A-3818-41BF-85FD-9B9DA0C2C101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E95700-4805-4EB9-A4EE-DC4C51354057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1324,9 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>525</v>
+      </c>
       <c r="D26" s="1">
         <v>800</v>
       </c>
@@ -1342,7 +1344,7 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="0"/>
-        <v>6.9375</v>
+        <v>7.59375</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1422,7 +1424,7 @@
         <v>300</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1">
         <v>600</v>
@@ -1432,7 +1434,7 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="0"/>
-        <v>5.15625</v>
+        <v>5.28125</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1482,7 +1484,7 @@
         <v>66.67</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G31" s="1">
         <v>200</v>
@@ -1492,7 +1494,7 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="0"/>
-        <v>4.1744124999999999</v>
+        <v>4.4244124999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
